--- a/posesiones/1485982.xlsx
+++ b/posesiones/1485982.xlsx
@@ -1847,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>16</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>9</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>26</v>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>16</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>23</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21">
         <v>14</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R26">
         <v>38</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3214,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R31">
         <v>28</v>
@@ -3267,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R32">
         <v>14</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R34">
         <v>18</v>
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R35">
         <v>21</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R41">
         <v>24</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R43">
         <v>12</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3917,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R45">
         <v>5</v>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R47">
         <v>17</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R49">
         <v>11</v>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R51">
         <v>13</v>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R52">
         <v>19</v>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R53">
         <v>20</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4429,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R55">
         <v>6</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4670,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R60">
         <v>1</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4817,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R63">
         <v>13</v>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R65">
         <v>21</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R67">
         <v>6</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5308,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R73">
         <v>24</v>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5549,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R78">
         <v>1</v>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5696,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R81">
         <v>13</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R83">
         <v>24</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5899,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R85">
         <v>16</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R87">
         <v>23</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6099,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R89">
         <v>12</v>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6199,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R91">
         <v>13</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6299,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R93">
         <v>17</v>
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R99">
         <v>25</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6687,7 +6687,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R101">
         <v>16</v>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6790,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R103">
         <v>21</v>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6881,10 +6881,10 @@
         <v>1</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6925,10 +6925,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R107">
         <v>13</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7263,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R116">
         <v>35</v>
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R120">
         <v>19</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7704,7 +7704,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R122">
         <v>9</v>
@@ -7757,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7807,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R124">
         <v>13</v>
@@ -7860,7 +7860,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R125">
         <v>22</v>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7963,7 +7963,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R127">
         <v>11</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8066,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R129">
         <v>18</v>
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8169,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R131">
         <v>10</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R133">
         <v>19</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8419,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8513,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8848,7 +8848,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R145">
         <v>38</v>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8951,7 +8951,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R147">
         <v>7</v>
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9054,7 +9054,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R149">
         <v>6</v>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9154,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9295,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9345,7 +9345,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R155">
         <v>24</v>
@@ -9395,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9442,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9492,7 +9492,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R158">
         <v>23</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9595,7 +9595,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R160">
         <v>6</v>
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9880,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R166">
         <v>12</v>
@@ -9930,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10024,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10074,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R170">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R171">
         <v>20</v>
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10227,7 +10227,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R173">
         <v>5</v>
@@ -10280,7 +10280,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R174">
         <v>24</v>
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R175">
         <v>21</v>
@@ -10386,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R177">
         <v>17</v>
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10539,7 +10539,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R179">
         <v>12</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10636,7 +10636,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R185">
         <v>19</v>
@@ -10880,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10980,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R188">
         <v>8</v>
@@ -11030,7 +11030,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11174,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R192">
         <v>18</v>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11277,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R194">
         <v>7</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11468,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11568,7 +11568,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R200">
         <v>37</v>
@@ -11618,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11665,7 +11665,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11712,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11806,7 +11806,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11856,7 +11856,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R206">
         <v>26</v>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11959,7 +11959,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R208">
         <v>22</v>
@@ -12009,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12059,7 +12059,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R210">
         <v>20</v>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12162,7 +12162,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R212">
         <v>23</v>
@@ -12215,7 +12215,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12265,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R214">
         <v>9</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12406,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12456,7 +12456,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R218">
         <v>19</v>
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12556,7 +12556,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R220">
         <v>8</v>
@@ -12606,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12653,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12703,7 +12703,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R223">
         <v>0</v>
@@ -12759,7 +12759,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R224">
         <v>0</v>
@@ -12803,10 +12803,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q225">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12900,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12994,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13129,10 +13129,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q232">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13182,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R233">
         <v>11</v>
@@ -13232,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13279,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13376,7 +13376,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R237">
         <v>26</v>
@@ -13426,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13476,7 +13476,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R239">
         <v>11</v>
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13579,7 +13579,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R241">
         <v>10</v>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13682,7 +13682,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R243">
         <v>17</v>
@@ -13735,7 +13735,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13785,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R245">
         <v>6</v>
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13888,7 +13888,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R247">
         <v>10</v>
@@ -13941,7 +13941,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R248">
         <v>7</v>
@@ -13991,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14038,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14088,7 +14088,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14138,7 +14138,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R252">
         <v>34</v>
@@ -14188,7 +14188,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14235,7 +14235,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14285,7 +14285,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14332,7 +14332,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14382,7 +14382,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14476,7 +14476,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14526,7 +14526,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R260">
         <v>23</v>
@@ -14576,7 +14576,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14626,7 +14626,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R262">
         <v>18</v>
@@ -14676,7 +14676,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14726,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R264">
         <v>24</v>
@@ -14776,7 +14776,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14826,7 +14826,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R266">
         <v>3</v>
@@ -14876,7 +14876,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14926,7 +14926,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R268">
         <v>4</v>
@@ -14979,7 +14979,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R269">
         <v>14</v>
@@ -15032,7 +15032,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15082,7 +15082,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R271">
         <v>7</v>
@@ -15135,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15182,7 +15182,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15232,7 +15232,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15279,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15329,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15379,7 +15379,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R277">
         <v>26</v>
@@ -15426,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15473,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15520,7 +15520,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15567,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15614,7 +15614,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15661,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15711,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15761,7 +15761,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R285">
         <v>21</v>
@@ -15811,7 +15811,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15861,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R287">
         <v>19</v>
@@ -15914,7 +15914,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R288">
         <v>14</v>
@@ -15964,7 +15964,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16058,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16108,7 +16108,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16158,7 +16158,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R293">
         <v>38</v>
@@ -16211,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16261,7 +16261,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R295">
         <v>12</v>
@@ -16314,7 +16314,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R296">
         <v>18</v>
@@ -16364,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16408,7 +16408,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16458,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R299">
         <v>0</v>
@@ -16511,7 +16511,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R300">
         <v>16</v>
@@ -16564,7 +16564,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16611,7 +16611,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16658,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16705,7 +16705,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16755,7 +16755,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R305">
         <v>3</v>
@@ -16808,7 +16808,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R306">
         <v>6</v>
@@ -16861,7 +16861,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R307">
         <v>17</v>
@@ -16914,7 +16914,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16964,7 +16964,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R309">
         <v>6</v>
@@ -17014,7 +17014,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17058,7 +17058,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17105,7 +17105,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17152,7 +17152,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17202,7 +17202,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R314">
         <v>15</v>
@@ -17252,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17299,7 +17299,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17346,7 +17346,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17393,7 +17393,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17440,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17487,7 +17487,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17534,7 +17534,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17581,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17631,7 +17631,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R323">
         <v>8</v>
@@ -17681,7 +17681,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17728,7 +17728,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17775,7 +17775,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17825,7 +17825,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R327">
         <v>13</v>
@@ -17878,7 +17878,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17928,7 +17928,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R329">
         <v>12</v>
@@ -17981,7 +17981,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18028,7 +18028,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18075,7 +18075,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18122,7 +18122,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18172,7 +18172,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R334">
         <v>14</v>
@@ -18225,7 +18225,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R335">
         <v>11</v>
@@ -18278,7 +18278,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18325,7 +18325,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18372,7 +18372,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18419,7 +18419,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18466,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18513,7 +18513,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18560,7 +18560,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18607,7 +18607,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18654,7 +18654,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18701,7 +18701,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18751,7 +18751,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R346">
         <v>5</v>
@@ -18801,7 +18801,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18848,7 +18848,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18895,7 +18895,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18945,7 +18945,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R350">
         <v>16</v>
@@ -18998,7 +18998,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R351">
         <v>21</v>
@@ -19048,7 +19048,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19098,7 +19098,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R353">
         <v>15</v>
@@ -19148,7 +19148,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19195,7 +19195,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19245,7 +19245,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19292,7 +19292,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19339,7 +19339,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19386,7 +19386,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19433,7 +19433,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19480,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19530,7 +19530,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R362">
         <v>22</v>
@@ -19583,7 +19583,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R363">
         <v>21</v>
@@ -19639,7 +19639,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R364">
         <v>1</v>
@@ -19683,10 +19683,10 @@
         <v>1</v>
       </c>
       <c r="P365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q365">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19733,7 +19733,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19780,7 +19780,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19827,7 +19827,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19874,7 +19874,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19915,10 +19915,10 @@
         <v>1</v>
       </c>
       <c r="P370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q370">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19965,7 +19965,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20012,7 +20012,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20059,7 +20059,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20106,7 +20106,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20156,7 +20156,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R375">
         <v>17</v>
@@ -20209,7 +20209,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R376">
         <v>14</v>
@@ -20259,7 +20259,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20309,7 +20309,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R378">
         <v>9</v>
@@ -20359,7 +20359,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20409,7 +20409,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R380">
         <v>19</v>
@@ -20462,7 +20462,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20512,7 +20512,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R382">
         <v>4</v>
@@ -20559,7 +20559,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20609,7 +20609,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R384">
         <v>21</v>
@@ -20662,7 +20662,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20712,7 +20712,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R386">
         <v>7</v>
@@ -20762,7 +20762,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20809,7 +20809,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20856,7 +20856,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20903,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20950,7 +20950,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20997,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21044,7 +21044,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21091,7 +21091,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21138,7 +21138,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21185,7 +21185,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21232,7 +21232,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21282,7 +21282,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R398">
         <v>17</v>
@@ -21335,7 +21335,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21385,7 +21385,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R400">
         <v>8</v>
@@ -21438,7 +21438,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21485,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21532,7 +21532,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21582,7 +21582,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R404">
         <v>31</v>
@@ -21635,7 +21635,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21685,7 +21685,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R406">
         <v>22</v>
@@ -21738,7 +21738,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R407">
         <v>21</v>
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21841,7 +21841,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R409">
         <v>17</v>
@@ -21894,7 +21894,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21941,7 +21941,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21988,7 +21988,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22035,7 +22035,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22082,7 +22082,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22132,7 +22132,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R415">
         <v>28</v>
@@ -22182,7 +22182,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22229,7 +22229,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22276,7 +22276,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22323,7 +22323,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22373,7 +22373,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R420">
         <v>26</v>
@@ -22423,7 +22423,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22476,7 +22476,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R422">
         <v>7</v>
@@ -22526,7 +22526,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22620,7 +22620,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22670,7 +22670,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R426">
         <v>13</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22770,7 +22770,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R428">
         <v>18</v>
@@ -22820,7 +22820,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22870,7 +22870,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22917,7 +22917,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22964,7 +22964,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23011,7 +23011,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23058,7 +23058,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23105,7 +23105,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23152,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23202,7 +23202,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R437">
         <v>7</v>
@@ -23252,7 +23252,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23299,7 +23299,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23349,7 +23349,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R440">
         <v>30</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23449,7 +23449,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23499,7 +23499,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23549,7 +23549,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R444">
         <v>24</v>
@@ -23599,7 +23599,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23643,7 +23643,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23690,7 +23690,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23784,7 +23784,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23834,7 +23834,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R450">
         <v>16</v>
@@ -23887,7 +23887,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R451">
         <v>22</v>
@@ -23940,7 +23940,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R452">
         <v>9</v>
@@ -23993,7 +23993,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24040,7 +24040,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24087,7 +24087,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24134,7 +24134,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24184,7 +24184,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R457">
         <v>7</v>
@@ -24237,7 +24237,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R458">
         <v>17</v>
@@ -24290,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24340,7 +24340,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R460">
         <v>26</v>
@@ -24390,7 +24390,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24440,7 +24440,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24490,7 +24490,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R463">
         <v>16</v>
@@ -24540,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24640,7 +24640,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R466">
         <v>12</v>
@@ -24693,7 +24693,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24743,7 +24743,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R468">
         <v>13</v>
@@ -24796,7 +24796,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24846,7 +24846,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R470">
         <v>23</v>
@@ -24896,7 +24896,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24946,7 +24946,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R472">
         <v>5</v>
@@ -24996,7 +24996,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25184,7 +25184,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25231,7 +25231,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25325,7 +25325,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25375,7 +25375,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R481">
         <v>0</v>
@@ -25428,7 +25428,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R482">
         <v>19</v>
@@ -25481,7 +25481,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R483">
         <v>11</v>
@@ -25531,7 +25531,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25575,7 +25575,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25622,7 +25622,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25669,7 +25669,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25716,7 +25716,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25810,7 +25810,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25860,7 +25860,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R491">
         <v>15</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25957,7 +25957,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26004,7 +26004,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26051,7 +26051,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26098,7 +26098,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26148,7 +26148,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R497">
         <v>26</v>
@@ -26198,7 +26198,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26248,7 +26248,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R499">
         <v>3</v>
@@ -26292,10 +26292,10 @@
         <v>1</v>
       </c>
       <c r="P500" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q500">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26336,7 +26336,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
